--- a/PCB/LTX-Rapidfire-BOM_JLCSMT.xlsx
+++ b/PCB/LTX-Rapidfire-BOM_JLCSMT.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dustin\Documents\Personal\GIT\ltx-rapidfire\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333A8D72-A190-43A3-9FEF-529C41A2E8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5856BD03-DC4E-4F75-9ED0-D00A995F9AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17025" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="266">
   <si>
     <t>Comment</t>
   </si>
@@ -106,15 +107,9 @@
     <t>1N4148W</t>
   </si>
   <si>
-    <t>TSAL6100</t>
-  </si>
-  <si>
     <t>F-1X08-SIP-100-40Y</t>
   </si>
   <si>
-    <t>30306-6002HB</t>
-  </si>
-  <si>
     <t>MMBT3904</t>
   </si>
   <si>
@@ -184,15 +179,9 @@
     <t>XC6206P332MR</t>
   </si>
   <si>
-    <t>Z8F082ADIL-8</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
@@ -208,9 +197,6 @@
     <t>J1</t>
   </si>
   <si>
-    <t>J2</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -325,21 +311,12 @@
     <t>R25</t>
   </si>
   <si>
-    <t>R26</t>
-  </si>
-  <si>
     <t>R27</t>
   </si>
   <si>
-    <t>U2</t>
-  </si>
-  <si>
     <t>C0603</t>
   </si>
   <si>
-    <t>E3;5-8</t>
-  </si>
-  <si>
     <t>SOD123</t>
   </si>
   <si>
@@ -349,9 +326,6 @@
     <t>SIP-100-08-40Y</t>
   </si>
   <si>
-    <t>MA03-2</t>
-  </si>
-  <si>
     <t>SOT23</t>
   </si>
   <si>
@@ -370,9 +344,6 @@
     <t>SOT-23_TOR</t>
   </si>
   <si>
-    <t>DIL8</t>
-  </si>
-  <si>
     <t>C14663</t>
   </si>
   <si>
@@ -452,6 +423,447 @@
   </si>
   <si>
     <t>C5446</t>
+  </si>
+  <si>
+    <t>Partl</t>
+  </si>
+  <si>
+    <t>ist exported from C:/Users/Dust</t>
+  </si>
+  <si>
+    <t>in/Documents/Personal/GIT/ltx-ra</t>
+  </si>
+  <si>
+    <t>pidfire/PCB/LTX-R</t>
+  </si>
+  <si>
+    <t>apidfire.sch at 10/10/2022 6</t>
+  </si>
+  <si>
+    <t>:31 PM</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>COPYRIGHT                                                DIGI-KEY_PART_NUMBER_1 DIGI-KEY_PART_NUMBER_2 DIGI-KEY_PART_NUMBER_3 LCSC   LCSC_DATASHEET</t>
+  </si>
+  <si>
+    <t>LCSC_PART LCSC_PRICE1_EUR</t>
+  </si>
+  <si>
+    <t>LCSC_ROTATION_CCW</t>
+  </si>
+  <si>
+    <t>LCSC_STOCK MANUFACTURER_PART_NUMBER MFR_NAME            PROD_ID</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>PERTIE</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>C_100NF/50V_0603</t>
+  </si>
+  <si>
+    <t>Capacitor General purpose SM</t>
+  </si>
+  <si>
+    <t>D Capacitor</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1809301912_YAGEO-CC0603KRX7R9BB104_C14663.pdf</t>
+  </si>
+  <si>
+    <t>50V</t>
+  </si>
+  <si>
+    <t>X7R ±</t>
+  </si>
+  <si>
+    <t>10% 0603  ROHS</t>
+  </si>
+  <si>
+    <t>C_10UF/25V_0603</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1811110921_Samsung-Electro-Mechanics-CL10A106MA8NRNC_C96446.pdf</t>
+  </si>
+  <si>
+    <t>X5R</t>
+  </si>
+  <si>
+    <t>25V ±</t>
+  </si>
+  <si>
+    <t>20% 10</t>
+  </si>
+  <si>
+    <t>uF 0603  ROHS</t>
+  </si>
+  <si>
+    <t>CPOL-USE3.5-8</t>
+  </si>
+  <si>
+    <t>E3,5-8</t>
+  </si>
+  <si>
+    <t>POLARIZED CAPACITOR, America</t>
+  </si>
+  <si>
+    <t>n symbol</t>
+  </si>
+  <si>
+    <t>C_22NF/50V_0603</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1811101610_Samsung-Electro-Mechanics-CL10B223KB8NNNC_C21122.pdf</t>
+  </si>
+  <si>
+    <t>X7R ±1</t>
+  </si>
+  <si>
+    <t>0% 0603  ROHS</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>D_1N4148W_ST_SOD123</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1811061725_ST-Semtech-1N4148W_C81598.pdf</t>
+  </si>
+  <si>
+    <t>75V</t>
+  </si>
+  <si>
+    <t>+150°</t>
+  </si>
+  <si>
+    <t>C@(Tj)</t>
+  </si>
+  <si>
+    <t>400mW Single 1.25V</t>
+  </si>
+  <si>
+    <t>@150mA 4ns 1A@75V 150mA SOD-123 Switching</t>
+  </si>
+  <si>
+    <t>ROHS</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>FEMALE HEADER</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>PINHD-1X3</t>
+  </si>
+  <si>
+    <t>1X03</t>
+  </si>
+  <si>
+    <t>PIN HEADER</t>
+  </si>
+  <si>
+    <t>T_NPN_MMBT3904_CHANGJ_SOT23-BEC</t>
+  </si>
+  <si>
+    <t>Transistor NPN</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1811011934_Changjiang-Electronics-Tech--CJ-MMBT3904_C20526.pdf</t>
+  </si>
+  <si>
+    <t>40V</t>
+  </si>
+  <si>
+    <t>200mW</t>
+  </si>
+  <si>
+    <t>200mA</t>
+  </si>
+  <si>
+    <t>100@10mA,1V 300MHz</t>
+  </si>
+  <si>
+    <t>300mV@50mA,5mA NPN +150°C@(Tj) SOT-23(SO</t>
+  </si>
+  <si>
+    <t>T-23-3)</t>
+  </si>
+  <si>
+    <t>Bipolar Transistors - BJT ROHS</t>
+  </si>
+  <si>
+    <t>T_PNP_MMBT5401_CHANGJ_SOT23-BEC</t>
+  </si>
+  <si>
+    <t>Transistor PNP</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1810111520_KEC-Semicon-2N3906S-RTK-P_C147294.pdf</t>
+  </si>
+  <si>
+    <t>350mW</t>
+  </si>
+  <si>
+    <t>100@10mA,1V 250MHz</t>
+  </si>
+  <si>
+    <t>400mV@50mA,5mA PNP</t>
+  </si>
+  <si>
+    <t>PNP Transistor</t>
+  </si>
+  <si>
+    <t>R_51K_0603</t>
+  </si>
+  <si>
+    <t>Resistor General purpose SMD</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2110252130_UNI-ROYAL-Uniroyal-Elec-0603WAF5102T5E_C23196.pdf</t>
+  </si>
+  <si>
+    <t>±1%</t>
+  </si>
+  <si>
+    <t>1/10W</t>
+  </si>
+  <si>
+    <t>Thick</t>
+  </si>
+  <si>
+    <t>Film Resistors 75V</t>
+  </si>
+  <si>
+    <t>±100ppm -55°C~+155°C 51kOhm 0603  ROHS</t>
+  </si>
+  <si>
+    <t>R_47K_0603</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2110260030_UNI-ROYAL-Uniroyal-Elec-0603WAF4702T5E_C25819.pdf</t>
+  </si>
+  <si>
+    <t>±100ppm -55°C~+155°C 47kOhm 0603  ROHS</t>
+  </si>
+  <si>
+    <t>R_22K_0603</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2110260230_UNI-ROYAL-Uniroyal-Elec-0603WAF2202T5E_C31850.pdf</t>
+  </si>
+  <si>
+    <t>±100ppm -55°C~+155°C 22kOhm 0603  ROHS</t>
+  </si>
+  <si>
+    <t>R_2.2K_0603</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2110251730_UNI-ROYAL-Uniroyal-Elec-0603WAF2201T5E_C4190.pdf</t>
+  </si>
+  <si>
+    <t>±100ppm -55°C~+155°C 2.2kOhm 0603  ROHS</t>
+  </si>
+  <si>
+    <t>R_3.9K_0603</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2110252130_UNI-ROYAL-Uniroyal-Elec-0603WAF3901T5E_C23018.pdf</t>
+  </si>
+  <si>
+    <t>±100ppm -55°C~+155°C 3.9kOhm 0603  ROHS</t>
+  </si>
+  <si>
+    <t>R_1K_0603</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2110252030_UNI-ROYAL-Uniroyal-Elec-0603WAF1001T5E_C21190.pdf</t>
+  </si>
+  <si>
+    <t>±100ppm -55°C~+155°C 1kOhm 0603  ROHS</t>
+  </si>
+  <si>
+    <t>R_3.3K_0603</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2110252130_UNI-ROYAL-Uniroyal-Elec-0603WAF3301T5E_C22978.pdf</t>
+  </si>
+  <si>
+    <t>±100ppm -55°C~+155°C 3.3kOhm 0603  ROHS</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2206010130_UNI-ROYAL-Uniroyal-Elec-0603WAF1301T5E_C22767.pdf</t>
+  </si>
+  <si>
+    <t>mW Thi</t>
+  </si>
+  <si>
+    <t>ck Fil</t>
+  </si>
+  <si>
+    <t>m Resistors 75V ±10</t>
+  </si>
+  <si>
+    <t>0ppm/? ±1% -55?~+155? 1.3kO</t>
+  </si>
+  <si>
+    <t>R_150R_0603</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2110252030_UNI-ROYAL-Uniroyal-Elec-0603WAF1500T5E_C22808.pdf</t>
+  </si>
+  <si>
+    <t>±100ppm -55°C~+155°C 150Ohm 0603  ROHS</t>
+  </si>
+  <si>
+    <t>R_47R_0603</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2110252130_UNI-ROYAL-Uniroyal-Elec-0603WAF470JT5E_C23182.pdf</t>
+  </si>
+  <si>
+    <t>±100ppm -55°C~+155°C 47Ohm 0603  ROHS</t>
+  </si>
+  <si>
+    <t>R-US_R2512</t>
+  </si>
+  <si>
+    <t>RESISTOR, American symbol</t>
+  </si>
+  <si>
+    <t>R_100R_0603</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2110252030_UNI-ROYAL-Uniroyal-Elec-0603WAF1000T5E_C22775.pdf</t>
+  </si>
+  <si>
+    <t>±200ppm -55°C~+155°C 100Ohm 0603  ROHS</t>
+  </si>
+  <si>
+    <t>R_16K_0805</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2110251730_UNI-ROYAL-Uniroyal-Elec-0805W8F1602T5E_C17490.pdf</t>
+  </si>
+  <si>
+    <t>1/8W</t>
+  </si>
+  <si>
+    <t>Film Resistors 150V</t>
+  </si>
+  <si>
+    <t>±100ppm -55°C~+155°C 16kOhm 0805  ROHS</t>
+  </si>
+  <si>
+    <t>R_200K_0603</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2110260030_UNI-ROYAL-Uniroyal-Elec-0603WAF2003T5E_C25811.pdf</t>
+  </si>
+  <si>
+    <t>±100ppm -55°C~+155°C 200kOhm 0603  ROHS</t>
+  </si>
+  <si>
+    <t>R_100K_0603</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2110260030_UNI-ROYAL-Uniroyal-Elec-0603WAF1003T5E_C25803.pdf</t>
+  </si>
+  <si>
+    <t>±100ppm -55°C~+155°C 100kOhm 0603  ROHS</t>
+  </si>
+  <si>
+    <t>R_220K_0603</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2110252130_UNI-ROYAL-Uniroyal-Elec-0603WAF2203T5E_C22961.pdf</t>
+  </si>
+  <si>
+    <t>±100ppm -55°C~+155°C 220kOhm 0603  ROHS</t>
+  </si>
+  <si>
+    <t>R_10K_0603</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2110260030_UNI-ROYAL-Uniroyal-Elec-0603WAF1002T5E_C25804.pdf</t>
+  </si>
+  <si>
+    <t>±100ppm -55°C~+155°C 10kOhm 0603  ROHS</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>2.2KOHM-0402-1/16W-1%</t>
+  </si>
+  <si>
+    <t>2.2kO resistor</t>
+  </si>
+  <si>
+    <t>RES-14341</t>
+  </si>
+  <si>
+    <t>2.2K</t>
+  </si>
+  <si>
+    <t>Copyright (C) 2022 Ultra Librarian. All rights reserved.</t>
+  </si>
+  <si>
+    <t>XC6206P332MR             Torex Semiconductor</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>ATTINY1616-MNRVQFN20_3X3_MCH-M</t>
+  </si>
+  <si>
+    <t>VQFN20_3X3_MCH-M</t>
+  </si>
+  <si>
+    <t>Copyright (C) 2022 Ultra Librarian. All rights reserved. ATTINY1616-MNRCT-ND    ATTINY1616-MNRDKR-ND   ATTINY1616-MNRTR-ND</t>
+  </si>
+  <si>
+    <t>ATTINY1616-MNR           Microchip</t>
+  </si>
+  <si>
+    <t>C507118</t>
   </si>
 </sst>
 </file>
@@ -528,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,9 +955,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -895,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -925,722 +1334,2931 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>102</v>
+      <c r="C2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>103</v>
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>104</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>105</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>106</v>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>108</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>108</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>108</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>108</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>109</v>
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>108</v>
+        <v>15</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>108</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>110</v>
+        <v>17</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>111</v>
+        <v>18</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>111</v>
+        <v>18</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>112</v>
+        <v>19</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>112</v>
+        <v>19</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>112</v>
+        <v>19</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>113</v>
+        <v>20</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>114</v>
+        <v>21</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>110</v>
+        <v>17</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>111</v>
+        <v>18</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>115</v>
+        <v>22</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>116</v>
+        <v>23</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>117</v>
+        <v>24</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>118</v>
+        <v>25</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>119</v>
+        <v>26</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>120</v>
+        <v>27</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>121</v>
+        <v>28</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>115</v>
+        <v>22</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>122</v>
+        <v>29</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>123</v>
+        <v>30</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>124</v>
+        <v>31</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>125</v>
+        <v>32</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>115</v>
+        <v>22</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>111</v>
+        <v>18</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>126</v>
+        <v>33</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>127</v>
+        <v>34</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>127</v>
+        <v>253</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="6"/>
+      <c r="C51" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>128</v>
+      <c r="C52" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="6"/>
+        <v>261</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>265</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F11BD9-90DE-4108-B26E-937BA3CDE641}">
+  <dimension ref="A1:T55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="20" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>7111530</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>119091</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>336043</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>7111530</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="5">
+        <v>180</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1139573</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="5">
+        <v>180</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1041615</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="5">
+        <v>180</v>
+      </c>
+      <c r="J14" s="5">
+        <v>367315</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="5">
+        <v>180</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1041615</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="5">
+        <v>180</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1041615</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="5">
+        <v>180</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1041615</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="5">
+        <v>180</v>
+      </c>
+      <c r="J18" s="5">
+        <v>367315</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="5">
+        <v>180</v>
+      </c>
+      <c r="J19" s="5">
+        <v>367315</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="5">
+        <v>180</v>
+      </c>
+      <c r="J20" s="5">
+        <v>367315</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="5">
+        <v>180</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1041615</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="5">
+        <v>180</v>
+      </c>
+      <c r="J23" s="5">
+        <v>367315</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="5">
+        <v>180</v>
+      </c>
+      <c r="J24" s="5">
+        <v>367315</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="5">
+        <v>180</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1041615</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>568423</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1052947</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1052947</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>342507</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>342507</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>342507</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>331536</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>210846</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>568423</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>1052947</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>5175299</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1921362</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>331536</v>
+      </c>
+      <c r="K38" s="5">
+        <v>100</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>466893</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <v>687203</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <v>3700009</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>5175299</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <v>5214</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5">
+        <v>665451</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>5826279</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>5175299</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <v>1052947</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <v>192313</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
+        <v>7979018</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D52" s="5">
+        <v>402</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>